--- a/kanban.xlsx
+++ b/kanban.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Summa jaar 1\Project 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\summa-project-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF074616-A5E5-4902-A3C6-3E612FBECE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97687A34-F20D-4F82-8FC4-F1802A7785ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>To do list</t>
   </si>
@@ -75,13 +75,61 @@
     <t>Database export</t>
   </si>
   <si>
-    <t>overige</t>
-  </si>
-  <si>
     <t>programmeren / GUI</t>
   </si>
   <si>
     <t>Create layout visio</t>
+  </si>
+  <si>
+    <t>Create home</t>
+  </si>
+  <si>
+    <t>Create contact us</t>
+  </si>
+  <si>
+    <t>Create Word lid</t>
+  </si>
+  <si>
+    <t>Create Doneer</t>
+  </si>
+  <si>
+    <t>Create onze leden</t>
+  </si>
+  <si>
+    <t>Create standpunten</t>
+  </si>
+  <si>
+    <t>maak de indeling in php</t>
+  </si>
+  <si>
+    <t>doneer page werkend</t>
+  </si>
+  <si>
+    <t>een start met html css</t>
+  </si>
+  <si>
+    <t>add linkjes naar facebook</t>
+  </si>
+  <si>
+    <t>add linkjes naar twitter</t>
+  </si>
+  <si>
+    <t>add linkjes naar instagram</t>
+  </si>
+  <si>
+    <t>fix de database tabellen</t>
+  </si>
+  <si>
+    <t>link alle css's</t>
+  </si>
+  <si>
+    <t>voeg plaatjes toe</t>
+  </si>
+  <si>
+    <t>zoek plaatjes</t>
+  </si>
+  <si>
+    <t>edmedia toevegen</t>
   </si>
 </sst>
 </file>
@@ -177,21 +225,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -479,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:D20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,27 +538,27 @@
     <col min="6" max="6" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -526,31 +571,31 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -622,9 +667,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -632,23 +675,23 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -668,7 +711,9 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -676,27 +721,33 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -704,7 +755,9 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -712,7 +765,9 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -720,7 +775,9 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -728,7 +785,9 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -736,7 +795,9 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -744,7 +805,9 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -752,7 +815,9 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -760,7 +825,9 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -768,7 +835,9 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -776,7 +845,9 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -784,7 +855,9 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -792,7 +865,9 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -800,7 +875,9 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -885,42 +962,82 @@
     </row>
   </sheetData>
   <mergeCells count="129">
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A44:B44"/>
@@ -943,79 +1060,39 @@
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E30:F30"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:F2 A4:B4 C3:F9 A10:F23 A5:A7">
+  <conditionalFormatting sqref="E4:F4 A1:F2 C3:F3 C7:F9 E6:F6 C4:D5 A10:F14 A17:F20 C15:F16 C21:D23 E22:F24 A7 C6 E5">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -1025,20 +1102,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{E064B22B-BD36-4EC9-AE05-E0E3DF8AD626}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:B44">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF008AEF"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CA0254CD-E7F5-47F0-B8FF-4A14F1EBB227}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1057,8 +1120,22 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24:F44">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="E25:F28 A30:B31 A33:B44">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CA0254CD-E7F5-47F0-B8FF-4A14F1EBB227}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:F30 E32:F44">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1087,20 +1164,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A1:F2 A4:B4 C3:F9 A10:F23 A5:A7</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CA0254CD-E7F5-47F0-B8FF-4A14F1EBB227}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF008AEF"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A24:B44</xm:sqref>
+          <xm:sqref>E4:F4 A1:F2 C3:F3 C7:F9 E6:F6 C4:D5 A10:F14 A17:F20 C15:F16 C21:D23 E22:F24 A7 C6 E5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DC34530A-123D-44F8-A6A1-67101862A64C}">
@@ -1116,6 +1180,19 @@
           <xm:sqref>C24:D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CA0254CD-E7F5-47F0-B8FF-4A14F1EBB227}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E25:F28 A30:B31 A33:B44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{915487AC-C5CB-44CD-8369-1A58E673C1C3}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -1126,7 +1203,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E24:F44</xm:sqref>
+          <xm:sqref>E30:F30 E32:F44</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
